--- a/DesignDocs/VariableData/Scrpit.xlsx
+++ b/DesignDocs/VariableData/Scrpit.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\VariableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7135987A-7116-4FBD-A8AF-9069F5237B3B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14955" windowHeight="8685" xr2:uid="{14BD8707-FD15-4E43-B882-FFB97704857C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14952" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,28 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>trigger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>codename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speaker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19_doncena_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{(firstcount)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,29 +46,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19_doncena_02</t>
-  </si>
-  <si>
-    <t>{(end)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{(endsignal, 19100)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내 위대한 폭력앞에\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(endsignal, 19101)}</t>
+    <t>speakerCid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextCid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 위대한 폭력앞에</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,86 +422,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0121B68-F0E5-4ABA-891A-2557A363C290}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.5" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>19000</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>19100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2">
         <v>19200</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
+      <c r="E2">
+        <v>19001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>19101</v>
+        <v>19001</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>19200</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
